--- a/Efdp/efdp-api/Documents/TestsLongTermDebtToFcf.xlsx
+++ b/Efdp/efdp-api/Documents/TestsLongTermDebtToFcf.xlsx
@@ -1,26 +1,69 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\r\Rollover\Efdp\efdp-api\Documents\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9232EC5-ED62-4363-9FCB-AD851CB20ED6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
+  <si>
+    <t>NVDA</t>
+  </si>
+  <si>
+    <t>LTD</t>
+  </si>
+  <si>
+    <t>FCF</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Ratio</t>
+  </si>
+  <si>
+    <t>GOOG</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="167" formatCode="0.0%"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,16 +71,43 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -45,15 +115,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +421,150 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>45319</v>
+      </c>
+      <c r="B3" s="2">
+        <v>8459000000</v>
+      </c>
+      <c r="C3" s="2">
+        <v>27021000000</v>
+      </c>
+      <c r="D3" s="3">
+        <f>B3/C3</f>
+        <v>0.31305281077680325</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>45291</v>
+      </c>
+      <c r="B4" s="2">
+        <v>9174333333</v>
+      </c>
+      <c r="C4" s="2">
+        <v>19283333333</v>
+      </c>
+      <c r="D4" s="3">
+        <f t="shared" ref="D4:D5" si="0">B4/C4</f>
+        <v>0.47576490923899334</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>45107</v>
+      </c>
+      <c r="B5" s="2">
+        <v>9889666666</v>
+      </c>
+      <c r="C5" s="2">
+        <v>11545666666</v>
+      </c>
+      <c r="D5" s="3">
+        <f t="shared" si="0"/>
+        <v>0.85656956433043097</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>45291</v>
+      </c>
+      <c r="B9" s="2">
+        <v>25713000000</v>
+      </c>
+      <c r="C9" s="2">
+        <v>69495000000</v>
+      </c>
+      <c r="D9" s="3">
+        <f>B9/C9</f>
+        <v>0.36999784157133608</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>45107</v>
+      </c>
+      <c r="B10" s="2">
+        <v>26209333333</v>
+      </c>
+      <c r="C10" s="2">
+        <v>66333333333</v>
+      </c>
+      <c r="D10" s="3">
+        <f t="shared" ref="D10:D11" si="1">B10/C10</f>
+        <v>0.39511557788640761</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>44955</v>
+      </c>
+      <c r="B11" s="2">
+        <v>26705666666</v>
+      </c>
+      <c r="C11" s="2">
+        <v>63171666666</v>
+      </c>
+      <c r="D11" s="3">
+        <f t="shared" si="1"/>
+        <v>0.42274753976648549</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Efdp/efdp-api/Documents/TestsLongTermDebtToFcf.xlsx
+++ b/Efdp/efdp-api/Documents/TestsLongTermDebtToFcf.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\r\Rollover\Efdp\efdp-api\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9232EC5-ED62-4363-9FCB-AD851CB20ED6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A305E82-B2E6-44F9-8E2B-2DBA3DA575CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,7 +63,7 @@
   <numFmts count="1">
     <numFmt numFmtId="167" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,6 +82,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="8" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -139,8 +146,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -425,7 +432,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -437,21 +444,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -465,7 +472,7 @@
       <c r="C3" s="2">
         <v>27021000000</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="4">
         <f>B3/C3</f>
         <v>0.31305281077680325</v>
       </c>
@@ -480,7 +487,7 @@
       <c r="C4" s="2">
         <v>19283333333</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="4">
         <f t="shared" ref="D4:D5" si="0">B4/C4</f>
         <v>0.47576490923899334</v>
       </c>
@@ -495,27 +502,27 @@
       <c r="C5" s="2">
         <v>11545666666</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="4">
         <f t="shared" si="0"/>
         <v>0.85656956433043097</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -529,7 +536,7 @@
       <c r="C9" s="2">
         <v>69495000000</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="4">
         <f>B9/C9</f>
         <v>0.36999784157133608</v>
       </c>
@@ -544,7 +551,7 @@
       <c r="C10" s="2">
         <v>66333333333</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="4">
         <f t="shared" ref="D10:D11" si="1">B10/C10</f>
         <v>0.39511557788640761</v>
       </c>
@@ -559,7 +566,7 @@
       <c r="C11" s="2">
         <v>63171666666</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="4">
         <f t="shared" si="1"/>
         <v>0.42274753976648549</v>
       </c>
